--- a/02 - config/example_multi_market/agents.xlsx
+++ b/02 - config/example_multi_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="260">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -594,49 +594,58 @@
     <t>ems/fcasts/update_period</t>
   </si>
   <si>
-    <t>Kp9o5ZPLONIyDdN</t>
-  </si>
-  <si>
-    <t>W7sClLRlFfZ2bNk</t>
-  </si>
-  <si>
-    <t>ttR3J5jnuPeTY3V</t>
-  </si>
-  <si>
-    <t>GlBV9DIAF9zINfW</t>
-  </si>
-  <si>
-    <t>GPBTkOdzYl1GckY</t>
-  </si>
-  <si>
-    <t>GP15FqSezCRKJMm</t>
-  </si>
-  <si>
-    <t>Yt3otS0dNC1LQ6o</t>
-  </si>
-  <si>
-    <t>qaV5BJu20LyQwry</t>
-  </si>
-  <si>
-    <t>rA5vtqi6xHJkDxV</t>
-  </si>
-  <si>
-    <t>JKOarnbR6X6tkU7</t>
+    <t>t4aCNcITjvPaEUS</t>
+  </si>
+  <si>
+    <t>vhUW3AhNnzAplcN</t>
+  </si>
+  <si>
+    <t>sQt39FEYZ2GP6CX</t>
+  </si>
+  <si>
+    <t>0tRkVDQsNv3sk6H</t>
+  </si>
+  <si>
+    <t>BfHvaebFL7y4T0p</t>
+  </si>
+  <si>
+    <t>nZ2p4ImHyjlDawE</t>
+  </si>
+  <si>
+    <t>aJox56XrN9tcDft</t>
+  </si>
+  <si>
+    <t>1DyhAqmnsfa9Hxz</t>
+  </si>
+  <si>
+    <t>adnMifB4V1VoNlT</t>
+  </si>
+  <si>
+    <t>9401tUuAArXeU1h</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
   </si>
   <si>
     <t>hh_4402_0.csv</t>
   </si>
   <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2959_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
+    <t>hh_2532_0.csv</t>
   </si>
   <si>
     <t>hh_3564_0.csv</t>
@@ -663,22 +672,22 @@
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_46.csv</t>
+    <t>ev_freetime_0.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
   </si>
   <si>
     <t>ev_fulltime_43.csv</t>
   </si>
   <si>
-    <t>ev_freetime_0.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
     <t>ev_freetime_3.csv</t>
   </si>
   <si>
-    <t>ev_freetime_2.csv</t>
+    <t>ev_fulltime_44.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -1760,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4402000</v>
+        <v>3863000</v>
       </c>
       <c r="O2" t="s">
         <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1781,25 +1790,25 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W2">
         <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y2">
         <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1811,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1826,34 +1835,34 @@
         <v>9</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN2">
         <v>90</v>
       </c>
       <c r="AO2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP2">
         <v>90</v>
       </c>
       <c r="AQ2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
         <v>210</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>207</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1868,34 +1877,34 @@
         <v>9</v>
       </c>
       <c r="BC2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE2">
         <v>90</v>
       </c>
       <c r="BF2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG2">
         <v>90</v>
       </c>
       <c r="BH2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>207</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -1910,25 +1919,25 @@
         <v>9</v>
       </c>
       <c r="BT2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV2">
         <v>90</v>
       </c>
       <c r="BW2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX2">
         <v>90</v>
       </c>
       <c r="BY2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -1937,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>5900</v>
+        <v>5200</v>
       </c>
       <c r="CD2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1952,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="CH2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -1967,37 +1976,37 @@
         <v>9</v>
       </c>
       <c r="CM2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO2">
         <v>90</v>
       </c>
       <c r="CP2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ2">
         <v>90</v>
       </c>
       <c r="CR2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>210</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>207</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -2012,37 +2021,37 @@
         <v>9</v>
       </c>
       <c r="DE2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG2">
         <v>90</v>
       </c>
       <c r="DH2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI2">
         <v>90</v>
       </c>
       <c r="DJ2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK2" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="s">
         <v>210</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>207</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -2057,28 +2066,28 @@
         <v>9</v>
       </c>
       <c r="DW2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY2">
         <v>90</v>
       </c>
       <c r="DZ2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA2">
         <v>90</v>
       </c>
       <c r="EB2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2087,43 +2096,16 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>1</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EM2">
-        <v>75000</v>
-      </c>
-      <c r="EN2">
-        <v>7200</v>
-      </c>
-      <c r="EO2">
-        <v>11000</v>
-      </c>
-      <c r="EP2">
-        <v>100000</v>
-      </c>
-      <c r="EQ2">
-        <v>90000</v>
-      </c>
-      <c r="ER2">
-        <v>80000</v>
-      </c>
-      <c r="ES2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="b">
         <v>0</v>
       </c>
       <c r="FD2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2138,22 +2120,40 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM2">
+        <v>1</v>
+      </c>
+      <c r="FN2">
+        <v>3900</v>
+      </c>
+      <c r="FO2">
+        <v>3900</v>
+      </c>
+      <c r="FP2">
+        <v>0.95</v>
+      </c>
+      <c r="FQ2">
+        <v>0.1</v>
+      </c>
+      <c r="FR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="b">
         <v>0</v>
       </c>
       <c r="FT2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="GA2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI2">
         <v>86400</v>
@@ -2200,10 +2200,10 @@
         <v>192</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2212,7 +2212,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2224,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3648000</v>
+        <v>3125000</v>
       </c>
       <c r="O3" t="s">
         <v>202</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2245,25 +2245,25 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W3">
         <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y3">
         <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2290,34 +2290,34 @@
         <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN3">
         <v>90</v>
       </c>
       <c r="AO3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP3">
         <v>90</v>
       </c>
       <c r="AQ3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
         <v>210</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>207</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -2332,34 +2332,34 @@
         <v>9</v>
       </c>
       <c r="BC3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE3">
         <v>90</v>
       </c>
       <c r="BF3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG3">
         <v>90</v>
       </c>
       <c r="BH3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>207</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -2374,49 +2374,49 @@
         <v>9</v>
       </c>
       <c r="BT3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV3">
         <v>90</v>
       </c>
       <c r="BW3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX3">
         <v>90</v>
       </c>
       <c r="BY3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>4900</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>40</v>
+      </c>
+      <c r="CG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="s">
         <v>210</v>
-      </c>
-      <c r="CA3">
-        <v>1</v>
-      </c>
-      <c r="CB3">
-        <v>1</v>
-      </c>
-      <c r="CC3">
-        <v>5200</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE3">
-        <v>-20</v>
-      </c>
-      <c r="CF3">
-        <v>50</v>
-      </c>
-      <c r="CG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>207</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -2431,37 +2431,37 @@
         <v>9</v>
       </c>
       <c r="CM3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO3">
         <v>90</v>
       </c>
       <c r="CP3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ3">
         <v>90</v>
       </c>
       <c r="CR3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS3" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>210</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>207</v>
       </c>
       <c r="DA3">
         <v>1</v>
@@ -2476,37 +2476,37 @@
         <v>9</v>
       </c>
       <c r="DE3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG3">
         <v>90</v>
       </c>
       <c r="DH3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI3">
         <v>90</v>
       </c>
       <c r="DJ3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK3" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="s">
         <v>210</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>207</v>
       </c>
       <c r="DS3">
         <v>1</v>
@@ -2521,28 +2521,28 @@
         <v>9</v>
       </c>
       <c r="DW3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY3">
         <v>90</v>
       </c>
       <c r="DZ3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA3">
         <v>90</v>
       </c>
       <c r="EB3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ3">
         <v>1</v>
@@ -2560,19 +2560,19 @@
         <v>1</v>
       </c>
       <c r="EL3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EM3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="EN3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EO3">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="EP3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="EQ3">
         <v>90000</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="FD3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2602,13 +2602,13 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL3">
         <v>1</v>
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="FN3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FO3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FP3">
         <v>0.95</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="FT3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -2644,28 +2644,28 @@
         <v>0</v>
       </c>
       <c r="GA3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI3">
         <v>86400</v>
@@ -2712,7 +2712,7 @@
         <v>203</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2727,25 +2727,25 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W4">
         <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y4">
         <v>90</v>
       </c>
       <c r="Z4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2772,34 +2772,34 @@
         <v>9</v>
       </c>
       <c r="AL4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN4">
         <v>90</v>
       </c>
       <c r="AO4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP4">
         <v>90</v>
       </c>
       <c r="AQ4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
         <v>210</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>207</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -2814,34 +2814,34 @@
         <v>9</v>
       </c>
       <c r="BC4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE4">
         <v>90</v>
       </c>
       <c r="BF4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG4">
         <v>90</v>
       </c>
       <c r="BH4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>207</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -2856,34 +2856,34 @@
         <v>9</v>
       </c>
       <c r="BT4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV4">
         <v>90</v>
       </c>
       <c r="BW4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX4">
         <v>90</v>
       </c>
       <c r="BY4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="s">
         <v>210</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>207</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -2898,37 +2898,37 @@
         <v>9</v>
       </c>
       <c r="CM4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO4">
         <v>90</v>
       </c>
       <c r="CP4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ4">
         <v>90</v>
       </c>
       <c r="CR4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
         <v>210</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>207</v>
       </c>
       <c r="DA4">
         <v>1</v>
@@ -2943,37 +2943,37 @@
         <v>9</v>
       </c>
       <c r="DE4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG4">
         <v>90</v>
       </c>
       <c r="DH4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI4">
         <v>90</v>
       </c>
       <c r="DJ4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK4" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DR4" t="s">
         <v>210</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>207</v>
       </c>
       <c r="DS4">
         <v>1</v>
@@ -2988,28 +2988,28 @@
         <v>9</v>
       </c>
       <c r="DW4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY4">
         <v>90</v>
       </c>
       <c r="DZ4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA4">
         <v>90</v>
       </c>
       <c r="EB4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3018,16 +3018,70 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK4">
+        <v>2</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>218</v>
+      </c>
+      <c r="EM4">
+        <v>75000</v>
+      </c>
+      <c r="EN4">
+        <v>7200</v>
+      </c>
+      <c r="EO4">
+        <v>11000</v>
+      </c>
+      <c r="EP4">
+        <v>100000</v>
+      </c>
+      <c r="EQ4">
+        <v>90000</v>
+      </c>
+      <c r="ER4">
+        <v>80000</v>
+      </c>
+      <c r="ES4" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV4">
+        <v>100000</v>
+      </c>
+      <c r="EW4">
+        <v>11000</v>
+      </c>
+      <c r="EX4">
+        <v>22000</v>
+      </c>
+      <c r="EY4">
+        <v>200000</v>
+      </c>
+      <c r="EZ4">
+        <v>90000</v>
+      </c>
+      <c r="FA4">
+        <v>80000</v>
+      </c>
+      <c r="FB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="b">
         <v>0</v>
       </c>
       <c r="FD4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3042,13 +3096,13 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL4">
         <v>0</v>
@@ -3057,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3066,28 +3120,28 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI4">
         <v>86400</v>
@@ -3104,10 +3158,10 @@
         <v>194</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3116,7 +3170,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3128,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3648000</v>
+        <v>5527000</v>
       </c>
       <c r="O5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3149,25 +3203,25 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W5">
         <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y5">
         <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -3179,7 +3233,7 @@
         <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3194,34 +3248,34 @@
         <v>9</v>
       </c>
       <c r="AL5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN5">
         <v>90</v>
       </c>
       <c r="AO5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP5">
         <v>90</v>
       </c>
       <c r="AQ5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
         <v>210</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>207</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -3236,34 +3290,34 @@
         <v>9</v>
       </c>
       <c r="BC5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE5">
         <v>90</v>
       </c>
       <c r="BF5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG5">
         <v>90</v>
       </c>
       <c r="BH5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>207</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -3278,49 +3332,49 @@
         <v>9</v>
       </c>
       <c r="BT5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV5">
         <v>90</v>
       </c>
       <c r="BW5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX5">
         <v>90</v>
       </c>
       <c r="BY5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>9000</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE5">
+        <v>-20</v>
+      </c>
+      <c r="CF5">
+        <v>50</v>
+      </c>
+      <c r="CG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="s">
         <v>210</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>4600</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>40</v>
-      </c>
-      <c r="CG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>207</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -3335,37 +3389,37 @@
         <v>9</v>
       </c>
       <c r="CM5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO5">
         <v>90</v>
       </c>
       <c r="CP5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ5">
         <v>90</v>
       </c>
       <c r="CR5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="s">
         <v>210</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>207</v>
       </c>
       <c r="DA5">
         <v>1</v>
@@ -3380,37 +3434,37 @@
         <v>9</v>
       </c>
       <c r="DE5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG5">
         <v>90</v>
       </c>
       <c r="DH5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI5">
         <v>90</v>
       </c>
       <c r="DJ5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK5" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="s">
         <v>210</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>207</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -3425,28 +3479,28 @@
         <v>9</v>
       </c>
       <c r="DW5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY5">
         <v>90</v>
       </c>
       <c r="DZ5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA5">
         <v>90</v>
       </c>
       <c r="EB5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3455,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3464,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="FD5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3479,40 +3533,22 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>1</v>
-      </c>
-      <c r="FN5">
-        <v>3600</v>
-      </c>
-      <c r="FO5">
-        <v>3600</v>
-      </c>
-      <c r="FP5">
-        <v>0.95</v>
-      </c>
-      <c r="FQ5">
-        <v>0.1</v>
-      </c>
-      <c r="FR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="b">
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -3521,28 +3557,28 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI5">
         <v>86400</v>
@@ -3559,10 +3595,10 @@
         <v>195</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3571,7 +3607,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3583,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2012000</v>
+        <v>4536000</v>
       </c>
       <c r="O6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3604,25 +3640,25 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W6">
         <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y6">
         <v>90</v>
       </c>
       <c r="Z6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -3634,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -3649,34 +3685,34 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN6">
         <v>90</v>
       </c>
       <c r="AO6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP6">
         <v>90</v>
       </c>
       <c r="AQ6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
         <v>210</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>207</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -3691,34 +3727,34 @@
         <v>9</v>
       </c>
       <c r="BC6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE6">
         <v>90</v>
       </c>
       <c r="BF6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG6">
         <v>90</v>
       </c>
       <c r="BH6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI6" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>207</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -3733,49 +3769,34 @@
         <v>9</v>
       </c>
       <c r="BT6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV6">
         <v>90</v>
       </c>
       <c r="BW6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX6">
         <v>90</v>
       </c>
       <c r="BY6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ6" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="s">
         <v>210</v>
-      </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6">
-        <v>2600</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>40</v>
-      </c>
-      <c r="CG6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>207</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -3790,37 +3811,37 @@
         <v>9</v>
       </c>
       <c r="CM6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO6">
         <v>90</v>
       </c>
       <c r="CP6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ6">
         <v>90</v>
       </c>
       <c r="CR6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS6" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="s">
         <v>210</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>207</v>
       </c>
       <c r="DA6">
         <v>1</v>
@@ -3835,37 +3856,37 @@
         <v>9</v>
       </c>
       <c r="DE6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG6">
         <v>90</v>
       </c>
       <c r="DH6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI6">
         <v>90</v>
       </c>
       <c r="DJ6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK6" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="s">
         <v>210</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>207</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -3880,28 +3901,28 @@
         <v>9</v>
       </c>
       <c r="DW6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY6">
         <v>90</v>
       </c>
       <c r="DZ6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA6">
         <v>90</v>
       </c>
       <c r="EB6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3910,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3919,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="FD6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -3934,40 +3955,22 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>1</v>
-      </c>
-      <c r="FN6">
-        <v>2000</v>
-      </c>
-      <c r="FO6">
-        <v>2000</v>
-      </c>
-      <c r="FP6">
-        <v>0.95</v>
-      </c>
-      <c r="FQ6">
-        <v>0.1</v>
-      </c>
-      <c r="FR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="b">
         <v>0</v>
       </c>
       <c r="FT6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU6">
         <v>0</v>
@@ -3976,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="GA6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI6">
         <v>86400</v>
@@ -4038,13 +4041,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>4402000</v>
+        <v>3648000</v>
       </c>
       <c r="O7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4059,25 +4062,25 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W7">
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y7">
         <v>90</v>
       </c>
       <c r="Z7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -4089,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4104,34 +4107,34 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN7">
         <v>90</v>
       </c>
       <c r="AO7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP7">
         <v>90</v>
       </c>
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
         <v>210</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>207</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -4146,34 +4149,34 @@
         <v>9</v>
       </c>
       <c r="BC7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE7">
         <v>90</v>
       </c>
       <c r="BF7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG7">
         <v>90</v>
       </c>
       <c r="BH7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>207</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -4188,25 +4191,25 @@
         <v>9</v>
       </c>
       <c r="BT7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV7">
         <v>90</v>
       </c>
       <c r="BW7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX7">
         <v>90</v>
       </c>
       <c r="BY7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -4215,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>5600</v>
+        <v>6400</v>
       </c>
       <c r="CD7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -4230,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="CH7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -4245,37 +4248,37 @@
         <v>9</v>
       </c>
       <c r="CM7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO7">
         <v>90</v>
       </c>
       <c r="CP7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ7">
         <v>90</v>
       </c>
       <c r="CR7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="s">
         <v>210</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>207</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -4290,37 +4293,37 @@
         <v>9</v>
       </c>
       <c r="DE7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG7">
         <v>90</v>
       </c>
       <c r="DH7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI7">
         <v>90</v>
       </c>
       <c r="DJ7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK7" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="s">
         <v>210</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>207</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -4335,28 +4338,28 @@
         <v>9</v>
       </c>
       <c r="DW7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY7">
         <v>90</v>
       </c>
       <c r="DZ7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA7">
         <v>90</v>
       </c>
       <c r="EB7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4365,43 +4368,16 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK7">
-        <v>1</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>216</v>
-      </c>
-      <c r="EM7">
-        <v>50000</v>
-      </c>
-      <c r="EN7">
-        <v>7200</v>
-      </c>
-      <c r="EO7">
-        <v>7200</v>
-      </c>
-      <c r="EP7">
-        <v>50000</v>
-      </c>
-      <c r="EQ7">
-        <v>90000</v>
-      </c>
-      <c r="ER7">
-        <v>80000</v>
-      </c>
-      <c r="ES7" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="b">
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4416,22 +4392,40 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM7">
+        <v>1</v>
+      </c>
+      <c r="FN7">
+        <v>3600</v>
+      </c>
+      <c r="FO7">
+        <v>3600</v>
+      </c>
+      <c r="FP7">
+        <v>0.95</v>
+      </c>
+      <c r="FQ7">
+        <v>0.1</v>
+      </c>
+      <c r="FR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="b">
         <v>0</v>
       </c>
       <c r="FT7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU7">
         <v>0</v>
@@ -4440,28 +4434,28 @@
         <v>0</v>
       </c>
       <c r="GA7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI7">
         <v>86400</v>
@@ -4505,10 +4499,10 @@
         <v>5527000</v>
       </c>
       <c r="O8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4523,25 +4517,25 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W8">
         <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y8">
         <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -4553,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -4568,34 +4562,34 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN8">
         <v>90</v>
       </c>
       <c r="AO8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP8">
         <v>90</v>
       </c>
       <c r="AQ8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
         <v>210</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>207</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -4610,34 +4604,34 @@
         <v>9</v>
       </c>
       <c r="BC8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE8">
         <v>90</v>
       </c>
       <c r="BF8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG8">
         <v>90</v>
       </c>
       <c r="BH8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>207</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -4652,25 +4646,25 @@
         <v>9</v>
       </c>
       <c r="BT8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV8">
         <v>90</v>
       </c>
       <c r="BW8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX8">
         <v>90</v>
       </c>
       <c r="BY8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -4679,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>9000</v>
+        <v>6900</v>
       </c>
       <c r="CD8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -4694,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="CH8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -4709,37 +4703,37 @@
         <v>9</v>
       </c>
       <c r="CM8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO8">
         <v>90</v>
       </c>
       <c r="CP8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ8">
         <v>90</v>
       </c>
       <c r="CR8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS8" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="s">
         <v>210</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>207</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -4754,37 +4748,37 @@
         <v>9</v>
       </c>
       <c r="DE8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG8">
         <v>90</v>
       </c>
       <c r="DH8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI8">
         <v>90</v>
       </c>
       <c r="DJ8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK8" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="s">
         <v>210</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>207</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -4799,28 +4793,28 @@
         <v>9</v>
       </c>
       <c r="DW8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY8">
         <v>90</v>
       </c>
       <c r="DZ8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA8">
         <v>90</v>
       </c>
       <c r="EB8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4829,16 +4823,43 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK8">
+        <v>1</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM8">
+        <v>50000</v>
+      </c>
+      <c r="EN8">
+        <v>7200</v>
+      </c>
+      <c r="EO8">
+        <v>7200</v>
+      </c>
+      <c r="EP8">
+        <v>50000</v>
+      </c>
+      <c r="EQ8">
+        <v>90000</v>
+      </c>
+      <c r="ER8">
+        <v>80000</v>
+      </c>
+      <c r="ES8" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="b">
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -4853,13 +4874,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -4886,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -4895,28 +4916,28 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI8">
         <v>86400</v>
@@ -4957,13 +4978,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>5527000</v>
+        <v>4402000</v>
       </c>
       <c r="O9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -4978,25 +4999,25 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W9">
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -5008,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -5023,34 +5044,34 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN9">
         <v>90</v>
       </c>
       <c r="AO9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP9">
         <v>90</v>
       </c>
       <c r="AQ9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
         <v>210</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>207</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -5065,34 +5086,34 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE9">
         <v>90</v>
       </c>
       <c r="BF9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG9">
         <v>90</v>
       </c>
       <c r="BH9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>207</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -5107,49 +5128,49 @@
         <v>9</v>
       </c>
       <c r="BT9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV9">
         <v>90</v>
       </c>
       <c r="BW9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX9">
         <v>90</v>
       </c>
       <c r="BY9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ9" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>5700</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE9">
+        <v>-20</v>
+      </c>
+      <c r="CF9">
+        <v>50</v>
+      </c>
+      <c r="CG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH9" t="s">
         <v>210</v>
-      </c>
-      <c r="CA9">
-        <v>1</v>
-      </c>
-      <c r="CB9">
-        <v>1</v>
-      </c>
-      <c r="CC9">
-        <v>8100</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>40</v>
-      </c>
-      <c r="CG9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>207</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -5164,37 +5185,37 @@
         <v>9</v>
       </c>
       <c r="CM9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO9">
         <v>90</v>
       </c>
       <c r="CP9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ9">
         <v>90</v>
       </c>
       <c r="CR9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS9" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="s">
         <v>210</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>207</v>
       </c>
       <c r="DA9">
         <v>1</v>
@@ -5209,37 +5230,37 @@
         <v>9</v>
       </c>
       <c r="DE9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG9">
         <v>90</v>
       </c>
       <c r="DH9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI9">
         <v>90</v>
       </c>
       <c r="DJ9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK9" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="s">
         <v>210</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>207</v>
       </c>
       <c r="DS9">
         <v>1</v>
@@ -5254,28 +5275,28 @@
         <v>9</v>
       </c>
       <c r="DW9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY9">
         <v>90</v>
       </c>
       <c r="DZ9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA9">
         <v>90</v>
       </c>
       <c r="EB9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5284,43 +5305,16 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK9">
-        <v>1</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>217</v>
-      </c>
-      <c r="EM9">
-        <v>75000</v>
-      </c>
-      <c r="EN9">
-        <v>7200</v>
-      </c>
-      <c r="EO9">
-        <v>11000</v>
-      </c>
-      <c r="EP9">
-        <v>100000</v>
-      </c>
-      <c r="EQ9">
-        <v>90000</v>
-      </c>
-      <c r="ER9">
-        <v>80000</v>
-      </c>
-      <c r="ES9" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET9" t="b">
         <v>0</v>
       </c>
       <c r="FD9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -5335,40 +5329,22 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM9">
-        <v>1</v>
-      </c>
-      <c r="FN9">
-        <v>5500</v>
-      </c>
-      <c r="FO9">
-        <v>5500</v>
-      </c>
-      <c r="FP9">
-        <v>0.95</v>
-      </c>
-      <c r="FQ9">
-        <v>0.1</v>
-      </c>
-      <c r="FR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="b">
         <v>0</v>
       </c>
       <c r="FT9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU9">
         <v>0</v>
@@ -5377,28 +5353,28 @@
         <v>0</v>
       </c>
       <c r="GA9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI9">
         <v>86400</v>
@@ -5415,10 +5391,10 @@
         <v>199</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -5427,7 +5403,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5439,13 +5415,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3564000</v>
+        <v>2532000</v>
       </c>
       <c r="O10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -5460,25 +5436,25 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W10">
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y10">
         <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -5490,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="AG10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -5505,34 +5481,34 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN10">
         <v>90</v>
       </c>
       <c r="AO10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP10">
         <v>90</v>
       </c>
       <c r="AQ10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="s">
         <v>210</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>207</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -5547,34 +5523,34 @@
         <v>9</v>
       </c>
       <c r="BC10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE10">
         <v>90</v>
       </c>
       <c r="BF10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG10">
         <v>90</v>
       </c>
       <c r="BH10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>207</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -5589,49 +5565,49 @@
         <v>9</v>
       </c>
       <c r="BT10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV10">
         <v>90</v>
       </c>
       <c r="BW10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX10">
         <v>90</v>
       </c>
       <c r="BY10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>4000</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>40</v>
+      </c>
+      <c r="CG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH10" t="s">
         <v>210</v>
-      </c>
-      <c r="CA10">
-        <v>1</v>
-      </c>
-      <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>4500</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE10">
-        <v>-20</v>
-      </c>
-      <c r="CF10">
-        <v>50</v>
-      </c>
-      <c r="CG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>207</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -5646,37 +5622,37 @@
         <v>9</v>
       </c>
       <c r="CM10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO10">
         <v>90</v>
       </c>
       <c r="CP10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ10">
         <v>90</v>
       </c>
       <c r="CR10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="s">
         <v>210</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>207</v>
       </c>
       <c r="DA10">
         <v>1</v>
@@ -5691,37 +5667,37 @@
         <v>9</v>
       </c>
       <c r="DE10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG10">
         <v>90</v>
       </c>
       <c r="DH10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI10">
         <v>90</v>
       </c>
       <c r="DJ10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK10" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="s">
         <v>210</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM10">
-        <v>0</v>
-      </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>207</v>
       </c>
       <c r="DS10">
         <v>1</v>
@@ -5736,28 +5712,28 @@
         <v>9</v>
       </c>
       <c r="DW10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY10">
         <v>90</v>
       </c>
       <c r="DZ10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA10">
         <v>90</v>
       </c>
       <c r="EB10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5766,16 +5742,43 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK10">
+        <v>1</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>220</v>
+      </c>
+      <c r="EM10">
+        <v>50000</v>
+      </c>
+      <c r="EN10">
+        <v>7200</v>
+      </c>
+      <c r="EO10">
+        <v>7200</v>
+      </c>
+      <c r="EP10">
+        <v>50000</v>
+      </c>
+      <c r="EQ10">
+        <v>90000</v>
+      </c>
+      <c r="ER10">
+        <v>80000</v>
+      </c>
+      <c r="ES10" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET10" t="b">
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -5790,13 +5793,13 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL10">
         <v>1</v>
@@ -5805,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="FN10">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="FO10">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="FP10">
         <v>0.95</v>
@@ -5823,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="FT10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU10">
         <v>0</v>
@@ -5832,28 +5835,28 @@
         <v>0</v>
       </c>
       <c r="GA10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI10">
         <v>86400</v>
@@ -5894,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>4402000</v>
+        <v>3564000</v>
       </c>
       <c r="O11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -5915,25 +5918,25 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W11">
         <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y11">
         <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -5945,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -5960,34 +5963,34 @@
         <v>9</v>
       </c>
       <c r="AL11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN11">
         <v>90</v>
       </c>
       <c r="AO11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AP11">
         <v>90</v>
       </c>
       <c r="AQ11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
         <v>210</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>207</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -6002,34 +6005,34 @@
         <v>9</v>
       </c>
       <c r="BC11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BD11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BE11">
         <v>90</v>
       </c>
       <c r="BF11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG11">
         <v>90</v>
       </c>
       <c r="BH11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>207</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -6044,34 +6047,49 @@
         <v>9</v>
       </c>
       <c r="BT11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BU11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BV11">
         <v>90</v>
       </c>
       <c r="BW11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX11">
         <v>90</v>
       </c>
       <c r="BY11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BZ11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA11">
+        <v>1</v>
+      </c>
+      <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
+        <v>5900</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>40</v>
+      </c>
+      <c r="CG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH11" t="s">
         <v>210</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>207</v>
       </c>
       <c r="CI11">
         <v>1</v>
@@ -6086,37 +6104,37 @@
         <v>9</v>
       </c>
       <c r="CM11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CN11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CO11">
         <v>90</v>
       </c>
       <c r="CP11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CQ11">
         <v>90</v>
       </c>
       <c r="CR11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CS11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="s">
         <v>210</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>207</v>
       </c>
       <c r="DA11">
         <v>1</v>
@@ -6131,37 +6149,37 @@
         <v>9</v>
       </c>
       <c r="DE11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DF11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DG11">
         <v>90</v>
       </c>
       <c r="DH11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DI11">
         <v>90</v>
       </c>
       <c r="DJ11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DK11" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>215</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DR11" t="s">
         <v>210</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DN11">
-        <v>0</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>207</v>
       </c>
       <c r="DS11">
         <v>1</v>
@@ -6176,28 +6194,28 @@
         <v>9</v>
       </c>
       <c r="DW11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DY11">
         <v>90</v>
       </c>
       <c r="DZ11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EA11">
         <v>90</v>
       </c>
       <c r="EB11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6206,28 +6224,28 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EJ11">
         <v>1</v>
       </c>
       <c r="EK11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="EM11">
+        <v>75000</v>
+      </c>
+      <c r="EN11">
+        <v>7200</v>
+      </c>
+      <c r="EO11">
+        <v>11000</v>
+      </c>
+      <c r="EP11">
         <v>100000</v>
-      </c>
-      <c r="EN11">
-        <v>11000</v>
-      </c>
-      <c r="EO11">
-        <v>22000</v>
-      </c>
-      <c r="EP11">
-        <v>200000</v>
       </c>
       <c r="EQ11">
         <v>90000</v>
@@ -6241,35 +6259,8 @@
       <c r="ET11" t="b">
         <v>0</v>
       </c>
-      <c r="EU11" t="s">
-        <v>219</v>
-      </c>
-      <c r="EV11">
-        <v>100000</v>
-      </c>
-      <c r="EW11">
-        <v>11000</v>
-      </c>
-      <c r="EX11">
-        <v>22000</v>
-      </c>
-      <c r="EY11">
-        <v>200000</v>
-      </c>
-      <c r="EZ11">
-        <v>90000</v>
-      </c>
-      <c r="FA11">
-        <v>80000</v>
-      </c>
-      <c r="FB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC11" t="b">
-        <v>0</v>
-      </c>
       <c r="FD11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -6284,22 +6275,40 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FJ11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FK11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM11">
+        <v>1</v>
+      </c>
+      <c r="FN11">
+        <v>3600</v>
+      </c>
+      <c r="FO11">
+        <v>3600</v>
+      </c>
+      <c r="FP11">
+        <v>0.95</v>
+      </c>
+      <c r="FQ11">
+        <v>0.1</v>
+      </c>
+      <c r="FR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS11" t="b">
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -6308,28 +6317,28 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="GB11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="GC11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GG11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI11">
         <v>86400</v>
@@ -6365,13 +6374,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -6962,7 +6971,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7274,22 +7283,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -7376,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8036,10 +8045,10 @@
         <v>188</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8099,58 +8108,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>
